--- a/Improgress/2. Artifact and Deliverable/DetailDesign/DE_BusinessRules_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign/DE_BusinessRules_Ver1.0.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DA8888-DC29-4BB6-B580-472AC514D025}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B96B6E1-1E3E-4037-9743-0CC2C189691B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
   <si>
     <t>Project Name:</t>
   </si>
@@ -344,6 +344,15 @@
   </si>
   <si>
     <t>File excel tải lên phải đúng định dạng các trường thông tin</t>
+  </si>
+  <si>
+    <t>Tải hình ảnh sơ đồ tổ chức</t>
+  </si>
+  <si>
+    <t>Admin tải duy nhất một hình ảnh sơ đồ tổ chức</t>
+  </si>
+  <si>
+    <t>BR.IW.003</t>
   </si>
 </sst>
 </file>
@@ -29944,10 +29953,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30064,140 +30073,146 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="92"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="66">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="92"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="66">
         <v>4</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="56" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="56" t="s">
         <v>94</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="50">
-        <v>4</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="56" t="s">
-        <v>72</v>
       </c>
       <c r="E10" s="53" t="s">
         <v>80</v>
       </c>
       <c r="F10" s="53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="50">
+        <v>4</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="53" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50">
-        <v>5</v>
-      </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>82</v>
-      </c>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="52"/>
       <c r="D13" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50">
+        <v>6</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E14" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F14" s="58" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="88" t="s">
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55">
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="55">
         <v>7</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E16" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F16" s="58" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="59">
         <v>8</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="52" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E17" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F17" s="58" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
@@ -30307,6 +30322,9 @@
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="8"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
@@ -30363,11 +30381,16 @@
       <c r="B42" s="18"/>
       <c r="C42" s="8"/>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
